--- a/Running projects/Spar DHA Phase-II Karachi/VO/Variation work.xlsx
+++ b/Running projects/Spar DHA Phase-II Karachi/VO/Variation work.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAFF478-327E-45C4-BFA3-909FE916C7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D5513D-B54C-4B35-90D8-706313FF85DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,35 +666,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -745,11 +724,32 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1600,7 +1600,7 @@
   <dimension ref="A7:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1612,116 +1612,116 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="43">
+      <c r="C7" s="38">
         <v>45731</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
     </row>
     <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-    </row>
-    <row r="14" spans="1:3" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+    </row>
+    <row r="14" spans="1:3" s="44" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
     </row>
     <row r="16" spans="1:3" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="50">
         <f>'Valves for cold room'!I38</f>
         <v>1375360</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="50">
         <f>'Lifting shifting'!I27</f>
         <v>416000</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="50">
         <f>GAs!I31</f>
         <v>823840</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="50">
         <f>misc!I33</f>
         <v>281404.15999999992</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="47"/>
     </row>
     <row r="21" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="55">
         <f>SUM(C16:C20)</f>
         <v>2896604.16</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="64"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1766,10 +1766,10 @@
     <row r="13" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="61"/>
       <c r="I15" s="8">
         <v>45731</v>
       </c>
@@ -1779,17 +1779,17 @@
       <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
@@ -1803,11 +1803,11 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -1816,9 +1816,9 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1827,34 +1827,34 @@
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -2251,16 +2251,16 @@
       <c r="L37" s="30"/>
     </row>
     <row r="38" spans="1:12" s="24" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
       <c r="I38" s="28">
         <f>SUM(I26:I37)</f>
         <v>1375360</v>
@@ -2394,10 +2394,10 @@
     <row r="9" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="61"/>
       <c r="I11" s="8">
         <v>45731</v>
       </c>
@@ -2407,17 +2407,17 @@
       <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
@@ -2431,11 +2431,11 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -2444,9 +2444,9 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -2455,29 +2455,29 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -2670,16 +2670,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="24" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
       <c r="I27" s="28">
         <f>SUM(I22:I26)</f>
         <v>416000</v>
@@ -2792,10 +2792,10 @@
     <row r="15" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="61"/>
       <c r="I17" s="8">
         <v>45731</v>
       </c>
@@ -2805,17 +2805,17 @@
       <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
@@ -2829,11 +2829,11 @@
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -2842,9 +2842,9 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -2853,29 +2853,29 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -3005,16 +3005,16 @@
       <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12" s="24" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
       <c r="I31" s="28">
         <f>SUM(I28:I30)</f>
         <v>823840</v>
@@ -3135,10 +3135,10 @@
     <row r="9" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="61"/>
       <c r="I11" s="8">
         <v>45731</v>
       </c>
@@ -3148,17 +3148,17 @@
       <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
@@ -3172,11 +3172,11 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -3185,9 +3185,9 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -3196,29 +3196,29 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
     </row>
     <row r="18" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <f t="shared" si="4"/>
         <v>7616</v>
       </c>
-      <c r="K24" s="65"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3607,16 +3607,16 @@
       <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:9" s="24" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
       <c r="I33" s="28">
         <f>SUM(I22:I32)</f>
         <v>281404.15999999992</v>

--- a/Running projects/Spar DHA Phase-II Karachi/VO/Variation work.xlsx
+++ b/Running projects/Spar DHA Phase-II Karachi/VO/Variation work.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D5513D-B54C-4B35-90D8-706313FF85DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EBCDC1-3016-416A-863F-DBAC823EC947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sum" sheetId="8" r:id="rId1"/>
@@ -13,8 +13,10 @@
     <sheet name="Lifting shifting" sheetId="2" r:id="rId3"/>
     <sheet name="GAs" sheetId="4" r:id="rId4"/>
     <sheet name="misc" sheetId="5" r:id="rId5"/>
+    <sheet name="Extra work for cold storage and" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Extra work for cold storage and'!$A$1:$G$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">GAs!$A$1:$I$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Lifting shifting'!$A$1:$I$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">misc!$A$1:$I$49</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
   <si>
     <t>S. #</t>
   </si>
@@ -273,17 +275,43 @@
   <si>
     <t>Summary of Variation Orders - Spar Super Market Karachi</t>
   </si>
+  <si>
+    <t>EXTRA WORK FOR COLD STORAGE AND FREEZER AREA - SPAR</t>
+  </si>
+  <si>
+    <t>Supply and installation of following copper pipe for extra work carried out</t>
+  </si>
+  <si>
+    <t>3/8" dia</t>
+  </si>
+  <si>
+    <t>5/8" dia</t>
+  </si>
+  <si>
+    <t>3/4" dia</t>
+  </si>
+  <si>
+    <t>7/8" dia</t>
+  </si>
+  <si>
+    <t>iiv</t>
+  </si>
+  <si>
+    <t>Rft</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +484,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -571,11 +604,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -750,10 +784,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1276,6 +1335,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1359177</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>522440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>162753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8EB4F8-2C0C-4B62-A17A-661B98A49275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1649068" y="57978"/>
+          <a:ext cx="2468024" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>116370</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488674</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310FE21E-EE6C-4D29-B966-2A111D17C37D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="116370" y="9592255"/>
+          <a:ext cx="658054" cy="534545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1597,9 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04FDAC7-605F-4D06-B8B5-D38191C2E4C2}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A7:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1736,6 +1923,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A7:L53"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2367,7 +2555,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A97FE-68EC-4D9A-A003-01239DB8E0E0}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A7:I36"/>
@@ -2759,7 +2947,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C55843-FE8F-4EA8-BCB7-0925D7EABC00}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A7:L43"/>
@@ -3108,7 +3296,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0008D71-2ADD-4515-BE53-D3A137B23C19}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A7:L45"/>
@@ -3706,4 +3894,336 @@
   <pageSetup scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6590287D-A1EA-4CCF-8081-F5761F05D55D}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A7:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:7" ht="10.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="G15" s="8">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="66">
+        <v>1</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="13"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="12">
+        <v>688</v>
+      </c>
+      <c r="E26" s="70">
+        <v>1139.8800000000001</v>
+      </c>
+      <c r="F26" s="70">
+        <v>168</v>
+      </c>
+      <c r="G26" s="13">
+        <f>SUM(F26+E26)*D26</f>
+        <v>899821.44000000006</v>
+      </c>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1387.5</v>
+      </c>
+      <c r="E27" s="70">
+        <v>403.2</v>
+      </c>
+      <c r="F27" s="70">
+        <v>126</v>
+      </c>
+      <c r="G27" s="13">
+        <f>SUM(F27+E27)*D27</f>
+        <v>734265.00000000012</v>
+      </c>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="12">
+        <v>286</v>
+      </c>
+      <c r="E28" s="70">
+        <v>1470</v>
+      </c>
+      <c r="F28" s="70">
+        <v>168</v>
+      </c>
+      <c r="G28" s="13">
+        <f>SUM(F28+E28)*D28</f>
+        <v>468468</v>
+      </c>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="12">
+        <v>413.5</v>
+      </c>
+      <c r="E29" s="70">
+        <v>1008</v>
+      </c>
+      <c r="F29" s="70">
+        <v>168</v>
+      </c>
+      <c r="G29" s="13">
+        <f>SUM(F29+E29)*D29</f>
+        <v>486276</v>
+      </c>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" s="24" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73">
+        <f>SUM(G25:G29)</f>
+        <v>2588830.4400000004</v>
+      </c>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:9" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:9" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A30:D30"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>